--- a/dash-2019-coronavirus/AU_cases.xlsx
+++ b/dash-2019-coronavirus/AU_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A848F05A-E97D-2F4E-BD4E-5F9443550D40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{978B99BD-D619-E74A-8EE5-A99C4055DE55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="2340" windowWidth="26380" windowHeight="15080" xr2:uid="{3957229F-561D-4E4D-B76A-D25F31CAED10}"/>
+    <workbookView xWindow="15720" yWindow="1140" windowWidth="26380" windowHeight="15080" xr2:uid="{3957229F-561D-4E4D-B76A-D25F31CAED10}"/>
   </bookViews>
   <sheets>
     <sheet name="AU" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="NZ" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AU!$A$1:$L$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AU!$A$1:$L$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="135">
   <si>
     <t>Confirmed Date</t>
   </si>
@@ -171,9 +172,6 @@
   </si>
   <si>
     <t>Auckland</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Zealand</t>
   </si>
   <si>
     <t>State/Country</t>
@@ -361,6 +359,84 @@
   </si>
   <si>
     <t>The patient is a woman who flew into Perth from the UK via Dubai. The infected woman was on Emirates Flight EK420, which touched down at Perth Airport on Monday at 5.05pm.</t>
+  </si>
+  <si>
+    <t>25th</t>
+  </si>
+  <si>
+    <t>24th</t>
+  </si>
+  <si>
+    <t>23rd</t>
+  </si>
+  <si>
+    <t>The 16-year-old student, from Epping Boys High School, is receiving medical attention as authorities work to contact those who came into contact with him.</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2020-03-06/coronavirus-cases-increase-in-nsw-as-authorities-trace-virus/12031678</t>
+  </si>
+  <si>
+    <t>90s</t>
+  </si>
+  <si>
+    <t>A resident from Goulburn who returned from Singapore and travelled to Darwin.</t>
+  </si>
+  <si>
+    <t>https://www.goulburnpost.com.au/story/6665146/nsw-virus-cases-more-than-doubles-in-week/</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2020-03-06/sydney-morning-briefing-friday-march-6/12029132</t>
+  </si>
+  <si>
+    <t>A fourth resident, aged 94, from the Dorothy Henderson Lodge aged care facility in Macquarie Park was also diagnosed.</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>The man, in his 30s, returned with his wife (Case #2) from a trip to Italy last week</t>
+  </si>
+  <si>
+    <t>The person was in their 60s, and was a citizen of New Zealand who had recently travelled from Iran via Bali. They had previously tested negative for Covid-19 twice.</t>
+  </si>
+  <si>
+    <t>He has close family members who have returned to New Zealand after spending time in Iran recently. The man himself has not travelled to Iran.</t>
+  </si>
+  <si>
+    <t>https://www.odt.co.nz/star-news/star-national/coronavirus-third-nz-case-confirmed-fourth-probable</t>
+  </si>
+  <si>
+    <t>https://www.newshub.co.nz/home/new-zealand/2020/03/fourth-coronavirus-case-confirmed-in-new-zealand.html</t>
+  </si>
+  <si>
+    <t>The child, who is Chinese and from the virus epicentre of Wuhan. He was travelling in the same tour group as the 44-year-old man and a 42-year-old woman who have been confirmed as Queensland's other cases of coronavirus.</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2020-02-04/queensland-confirms-third-coronavirus-case-boy-from-wuhan/11930308</t>
+  </si>
+  <si>
+    <t>26th</t>
+  </si>
+  <si>
+    <t>A worker at the BaptistCare Dorothy Henderson Lodge aged care facility in northern Sydney</t>
+  </si>
+  <si>
+    <t>https://7news.com.au/lifestyle/health-wellbeing/coronavirus-strikes-macquarie-park-nursing-home-again-as-sixth-case-is-confirmed-c-732603</t>
+  </si>
+  <si>
+    <t>27th</t>
+  </si>
+  <si>
+    <t>28th</t>
+  </si>
+  <si>
+    <t>A 24-year-old female and a 21-year-old male - who are both staff members at the Dorothy Henderson Lodge Aged Care Facility in Macquarie Park</t>
+  </si>
+  <si>
+    <t>https://7news.com.au/lifestyle/health-wellbeing/two-more-nsw-aged-care-workers-test-positive-to-coronavirus-c-733147</t>
   </si>
 </sst>
 </file>
@@ -787,11 +863,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919399BE-075A-D443-87D5-4A91EEBBFBFF}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -821,7 +897,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>1</v>
@@ -830,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>5</v>
@@ -850,623 +926,665 @@
     </row>
     <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="9">
-        <v>43892</v>
+        <v>53</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B3" s="9">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B4" s="9">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B5" s="9">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="9">
-        <v>43893</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>9</v>
+        <v>115</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
+        <v>59</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43896</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="9">
-        <v>43895</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>58</v>
+      </c>
+      <c r="B7" s="9">
+        <v>43895</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>57</v>
+      </c>
+      <c r="B8" s="9">
+        <v>43895</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="9">
+        <v>43892</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>56</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43895</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>52</v>
-      </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>51</v>
-      </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>50</v>
-      </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B10" s="9">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B11" s="9">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="G11" s="9">
+        <v>43893</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B12" s="9">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <v>46</v>
-      </c>
-      <c r="B13" s="9">
-        <v>43894</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="9">
-        <v>43891</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <v>45</v>
-      </c>
-      <c r="B14" s="9">
-        <v>43894</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
-        <v>44</v>
-      </c>
-      <c r="B15" s="9">
-        <v>43894</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B16" s="9">
         <v>43894</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B17" s="9">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B18" s="9">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B19" s="9">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G19" s="9">
         <v>43891</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B20" s="9">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G20" s="9"/>
       <c r="H20" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>28</v>
+        <v>88</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B21" s="9">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B22" s="9">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="9">
-        <v>43884</v>
-      </c>
       <c r="H22" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="B23" s="9">
+        <v>43893</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="B24" s="9">
+        <v>43893</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B25" s="9">
+        <v>43893</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="9">
         <v>43891</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="9">
-        <v>43889</v>
-      </c>
       <c r="H25" s="8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>15</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B26" s="9">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="9">
-        <v>43884</v>
+        <v>34</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>6</v>
@@ -1475,324 +1593,306 @@
         <v>9</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L26" s="10"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B27" s="9">
-        <v>43891</v>
+        <v>43893</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="9">
-        <v>43883</v>
+        <v>22</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="B28" s="9">
+        <v>43893</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="9">
+        <v>43884</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="B31" s="9">
+        <v>43891</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="9">
+        <v>43889</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="B32" s="9">
+        <v>43891</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="9">
+        <v>43884</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="9">
+        <v>43891</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="9">
+        <v>43883</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="8">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="8">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
         <v>13</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="10"/>
-    </row>
-    <row r="47" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
-        <v>12</v>
-      </c>
-      <c r="B47" s="9">
-        <v>43862</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
-        <v>11</v>
-      </c>
-      <c r="B48" s="9">
-        <v>43862</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
-        <v>10</v>
-      </c>
-      <c r="B49" s="9">
-        <v>43862</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="6" t="s">
+      <c r="B52" s="9">
+        <v>43865</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
-        <v>9</v>
-      </c>
-      <c r="B50" s="9">
-        <v>43860</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
-        <v>8</v>
-      </c>
-      <c r="B51" s="9">
-        <v>43860</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
-        <v>7</v>
-      </c>
-      <c r="B52" s="9">
-        <v>43859</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>64</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G52" s="9"/>
       <c r="H52" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>81</v>
+        <v>126</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B53" s="9">
-        <v>43859</v>
+        <v>43862</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>31</v>
@@ -1801,209 +1901,385 @@
         <v>14</v>
       </c>
       <c r="I53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K53" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="K53" s="6" t="s">
-        <v>68</v>
-      </c>
       <c r="L53" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B54" s="9">
-        <v>43857</v>
+        <v>43862</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G54" s="9">
-        <v>43854</v>
+        <v>63</v>
       </c>
       <c r="H54" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I54" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>10</v>
+      </c>
+      <c r="B55" s="9">
+        <v>43862</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I55" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="9">
-        <v>43871</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L54" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
-        <v>4</v>
-      </c>
-      <c r="B55" s="9">
-        <v>43855</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="8" t="s">
+      <c r="K55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
         <v>9</v>
       </c>
-      <c r="J55" s="9">
-        <v>43888</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
-        <v>3</v>
-      </c>
       <c r="B56" s="9">
-        <v>43855</v>
+        <v>43860</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>31</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J56" s="9">
+      <c r="K56" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>8</v>
+      </c>
+      <c r="B57" s="9">
         <v>43860</v>
       </c>
-      <c r="K56" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
-        <v>2</v>
-      </c>
-      <c r="B57" s="9">
-        <v>43855</v>
-      </c>
       <c r="C57" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>54</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E57" s="11"/>
       <c r="F57" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G57" s="9">
-        <v>43846</v>
+        <v>69</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="9">
-        <v>43860</v>
+        <v>16</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B58" s="9">
-        <v>43855</v>
+        <v>43859</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H58" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>6</v>
+      </c>
+      <c r="B59" s="9">
+        <v>43859</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>5</v>
+      </c>
+      <c r="B60" s="9">
+        <v>43857</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G60" s="9">
+        <v>43854</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="9">
+        <v>43871</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>4</v>
+      </c>
+      <c r="B61" s="9">
+        <v>43855</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K58" s="6" t="s">
+      <c r="J61" s="9">
+        <v>43888</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
+        <v>3</v>
+      </c>
+      <c r="B62" s="9">
+        <v>43855</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="9">
+        <v>43860</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>2</v>
+      </c>
+      <c r="B63" s="9">
+        <v>43855</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="9">
+        <v>43846</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="9">
+        <v>43860</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
+        <v>1</v>
+      </c>
+      <c r="B64" s="9">
+        <v>43855</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L64" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="L58" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L58" xr:uid="{9C0150B7-CF47-1044-B537-71994F2408D2}"/>
+  <autoFilter ref="A1:L64" xr:uid="{9C0150B7-CF47-1044-B537-71994F2408D2}"/>
   <hyperlinks>
-    <hyperlink ref="L25" r:id="rId1" xr:uid="{0D44C545-469C-ED4F-8FAA-E2B0F836CFBA}"/>
-    <hyperlink ref="L22" r:id="rId2" xr:uid="{BA68DE91-E736-2644-8142-0F8D52F6D350}"/>
-    <hyperlink ref="L15" r:id="rId3" xr:uid="{7F0E8F27-98B8-1042-A1A0-114FE8DE1317}"/>
-    <hyperlink ref="L17" r:id="rId4" xr:uid="{25CCA38D-043C-E647-BA85-B4F67B35D73C}"/>
-    <hyperlink ref="L13" r:id="rId5" xr:uid="{63905F7B-FE74-DA4E-B80F-574962F24B26}"/>
-    <hyperlink ref="L12" r:id="rId6" xr:uid="{AD3658A0-CC3E-3642-88DF-033E946FDB99}"/>
-    <hyperlink ref="L16" r:id="rId7" xr:uid="{FD742397-452B-5641-876D-38A79307D66D}"/>
-    <hyperlink ref="L54" r:id="rId8" xr:uid="{548A873D-70D8-F54C-A00F-FE9FA10705C5}"/>
-    <hyperlink ref="L47" r:id="rId9" xr:uid="{B48B82EA-ECF5-E540-A373-680EBDD5DCB9}"/>
-    <hyperlink ref="L48" r:id="rId10" xr:uid="{3271C0CD-13AE-0745-BC55-1AA62337D49A}"/>
-    <hyperlink ref="L49" r:id="rId11" xr:uid="{8AF0F66A-1EEC-824A-BCAB-14F296703374}"/>
-    <hyperlink ref="L53" r:id="rId12" xr:uid="{43B30659-CE95-A246-9BC7-67449FA89FB0}"/>
-    <hyperlink ref="L58" r:id="rId13" xr:uid="{309FC89E-B40A-7141-8F9F-1D18EA14D34C}"/>
-    <hyperlink ref="L57" r:id="rId14" xr:uid="{65642345-C78E-A54E-A785-E05249FD8BD1}"/>
-    <hyperlink ref="L56" r:id="rId15" xr:uid="{87932C83-25E2-2948-8691-D78D74A64D38}"/>
-    <hyperlink ref="L51" r:id="rId16" xr:uid="{C3973531-A0AA-9F4F-B26C-F0CDF5DC2AD7}"/>
-    <hyperlink ref="L11" r:id="rId17" xr:uid="{71520645-9DF7-E346-8B6D-E069A140F781}"/>
-    <hyperlink ref="L10" r:id="rId18" xr:uid="{305BE686-36CE-EA4F-863A-DD8EB67DCC02}"/>
-    <hyperlink ref="L14" r:id="rId19" xr:uid="{4140D69D-AE97-B54A-A2C3-9F1C8515669E}"/>
-    <hyperlink ref="L27" r:id="rId20" xr:uid="{780DB668-24D3-0E43-A838-F4AD1331CFDE}"/>
-    <hyperlink ref="L5" r:id="rId21" xr:uid="{5563CB6E-99C1-004D-AD39-981A7358B036}"/>
-    <hyperlink ref="L3" r:id="rId22" xr:uid="{0C20A674-8C1E-9040-A490-9B1F0D29448E}"/>
-    <hyperlink ref="L4" r:id="rId23" xr:uid="{8CD7A831-2FFD-534C-9522-479FF76EE362}"/>
-    <hyperlink ref="L2" r:id="rId24" xr:uid="{5696FD58-DC42-054D-AA0A-C9AD7277E60D}"/>
+    <hyperlink ref="L31" r:id="rId1" xr:uid="{0D44C545-469C-ED4F-8FAA-E2B0F836CFBA}"/>
+    <hyperlink ref="L28" r:id="rId2" xr:uid="{BA68DE91-E736-2644-8142-0F8D52F6D350}"/>
+    <hyperlink ref="L21" r:id="rId3" xr:uid="{7F0E8F27-98B8-1042-A1A0-114FE8DE1317}"/>
+    <hyperlink ref="L23" r:id="rId4" xr:uid="{25CCA38D-043C-E647-BA85-B4F67B35D73C}"/>
+    <hyperlink ref="L19" r:id="rId5" xr:uid="{63905F7B-FE74-DA4E-B80F-574962F24B26}"/>
+    <hyperlink ref="L18" r:id="rId6" xr:uid="{AD3658A0-CC3E-3642-88DF-033E946FDB99}"/>
+    <hyperlink ref="L22" r:id="rId7" xr:uid="{FD742397-452B-5641-876D-38A79307D66D}"/>
+    <hyperlink ref="L60" r:id="rId8" xr:uid="{548A873D-70D8-F54C-A00F-FE9FA10705C5}"/>
+    <hyperlink ref="L53" r:id="rId9" xr:uid="{B48B82EA-ECF5-E540-A373-680EBDD5DCB9}"/>
+    <hyperlink ref="L54" r:id="rId10" xr:uid="{3271C0CD-13AE-0745-BC55-1AA62337D49A}"/>
+    <hyperlink ref="L55" r:id="rId11" xr:uid="{8AF0F66A-1EEC-824A-BCAB-14F296703374}"/>
+    <hyperlink ref="L59" r:id="rId12" xr:uid="{43B30659-CE95-A246-9BC7-67449FA89FB0}"/>
+    <hyperlink ref="L64" r:id="rId13" xr:uid="{309FC89E-B40A-7141-8F9F-1D18EA14D34C}"/>
+    <hyperlink ref="L63" r:id="rId14" xr:uid="{65642345-C78E-A54E-A785-E05249FD8BD1}"/>
+    <hyperlink ref="L62" r:id="rId15" xr:uid="{87932C83-25E2-2948-8691-D78D74A64D38}"/>
+    <hyperlink ref="L57" r:id="rId16" xr:uid="{C3973531-A0AA-9F4F-B26C-F0CDF5DC2AD7}"/>
+    <hyperlink ref="L17" r:id="rId17" xr:uid="{71520645-9DF7-E346-8B6D-E069A140F781}"/>
+    <hyperlink ref="L16" r:id="rId18" xr:uid="{305BE686-36CE-EA4F-863A-DD8EB67DCC02}"/>
+    <hyperlink ref="L20" r:id="rId19" xr:uid="{4140D69D-AE97-B54A-A2C3-9F1C8515669E}"/>
+    <hyperlink ref="L33" r:id="rId20" xr:uid="{780DB668-24D3-0E43-A838-F4AD1331CFDE}"/>
+    <hyperlink ref="L11" r:id="rId21" xr:uid="{5563CB6E-99C1-004D-AD39-981A7358B036}"/>
+    <hyperlink ref="L9" r:id="rId22" xr:uid="{0C20A674-8C1E-9040-A490-9B1F0D29448E}"/>
+    <hyperlink ref="L10" r:id="rId23" xr:uid="{8CD7A831-2FFD-534C-9522-479FF76EE362}"/>
+    <hyperlink ref="L8" r:id="rId24" xr:uid="{5696FD58-DC42-054D-AA0A-C9AD7277E60D}"/>
+    <hyperlink ref="L7" r:id="rId25" xr:uid="{FF857456-5CE7-694C-8DA0-29F248C9852F}"/>
+    <hyperlink ref="L6" r:id="rId26" xr:uid="{D2848BB4-17F5-EA4F-8860-DCA5AD18E2E6}"/>
+    <hyperlink ref="L5" r:id="rId27" xr:uid="{AF19E2E3-451A-C64A-91B2-C2ABF92E2622}"/>
+    <hyperlink ref="L52" r:id="rId28" xr:uid="{CB72A096-B44D-274D-BE34-1E3D5B8E27C7}"/>
+    <hyperlink ref="L4" r:id="rId29" xr:uid="{3FCD5680-EA39-3744-AD5D-761EE9257E6A}"/>
+    <hyperlink ref="L3" r:id="rId30" xr:uid="{8CB9DB44-13A2-5F4D-B4BD-0384A67EF830}"/>
+    <hyperlink ref="L2" r:id="rId31" xr:uid="{D1E75F7A-8043-384F-AF3A-D1F73187EF11}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2024,15 +2300,15 @@
   <sheetData>
     <row r="2" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="102" x14ac:dyDescent="0.3">
@@ -2046,25 +2322,25 @@
         <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2078,10 +2354,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F1C616-2896-8346-8A90-DA704E58D3E7}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2102,7 +2378,7 @@
         <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2111,7 +2387,7 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -2129,56 +2405,124 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43896</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>43895</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14">
-        <v>43894</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14">
+        <v>43894</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G4" s="14">
         <v>43886</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L4" s="16" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43889</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" xr:uid="{42D91B44-EE8F-434C-B3BB-636AA0FC245C}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{42D91B44-EE8F-434C-B3BB-636AA0FC245C}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{AC0F5ECC-0CBB-6147-A042-23E0EAFA10B7}"/>
+    <hyperlink ref="L2" r:id="rId3" xr:uid="{E403A7D5-F88B-1D44-8A1A-4822793F61E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dash-2019-coronavirus/AU_cases.xlsx
+++ b/dash-2019-coronavirus/AU_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/Dropbox/Course/data-visualisation-scripts/dash-2019-coronavirus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44656FA-FD01-904E-8AFA-79B1C04D3117}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C325BCB-A2FD-E841-947F-42608B4D4E46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="1800" windowWidth="31920" windowHeight="14380" xr2:uid="{3957229F-561D-4E4D-B76A-D25F31CAED10}"/>
+    <workbookView xWindow="11140" yWindow="440" windowWidth="31920" windowHeight="13300" xr2:uid="{3957229F-561D-4E4D-B76A-D25F31CAED10}"/>
   </bookViews>
   <sheets>
     <sheet name="AU" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AU!$A$1:$L$93</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="231">
   <si>
     <t>Confirmed Date</t>
   </si>
@@ -757,6 +757,12 @@
   </si>
   <si>
     <t>A resident from Goulburn who returned from Singapore and travelled to Darwin. This man has been reported as the 1st case in NT, but transferred back to Sydney later.</t>
+  </si>
+  <si>
+    <t>https://www.abc.net.au/news/2020-03-09/victoria-records-new-coronavirus-covid-19-cases/12038048</t>
+  </si>
+  <si>
+    <t>A teacher in Carey Baptist Grammar School, whoes partner had been on the same flight from the US as Case #64 (the doctor).</t>
   </si>
 </sst>
 </file>
@@ -1210,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919399BE-075A-D443-87D5-4A91EEBBFBFF}">
   <dimension ref="A1:XFD105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1227,7 @@
     <col min="3" max="3" width="14" style="8" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -20515,6 +20521,35 @@
         <v>137</v>
       </c>
     </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="8">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" s="9">
+        <v>43899</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B105" s="7"/>
       <c r="F105" s="7"/>
@@ -20597,6 +20632,7 @@
     <hyperlink ref="L86" r:id="rId71" xr:uid="{9B5AB842-DFF5-3F4C-9FD7-B8E869183CB6}"/>
     <hyperlink ref="L87" r:id="rId72" xr:uid="{4546777A-E342-8149-9D33-2C3CBF008EEF}"/>
     <hyperlink ref="L88" r:id="rId73" xr:uid="{D8D1B90E-4BBF-5F41-A80A-8039C2968562}"/>
+    <hyperlink ref="L94" r:id="rId74" xr:uid="{D2DA1082-BE25-724C-9FED-C65F550D17D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
